--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>187.6063563333333</v>
+        <v>156.920329</v>
       </c>
       <c r="H2">
-        <v>562.819069</v>
+        <v>470.760987</v>
       </c>
       <c r="I2">
-        <v>0.4593058955083382</v>
+        <v>0.5508291342957625</v>
       </c>
       <c r="J2">
-        <v>0.4593058955083382</v>
+        <v>0.5508291342957624</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N2">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P2">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q2">
-        <v>10488.7434466858</v>
+        <v>6049.698706363956</v>
       </c>
       <c r="R2">
-        <v>94398.69102017218</v>
+        <v>54447.28835727561</v>
       </c>
       <c r="S2">
-        <v>0.2945272240265582</v>
+        <v>0.3171757730309882</v>
       </c>
       <c r="T2">
-        <v>0.2945272240265582</v>
+        <v>0.3171757730309882</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>187.6063563333333</v>
+        <v>156.920329</v>
       </c>
       <c r="H3">
-        <v>562.819069</v>
+        <v>470.760987</v>
       </c>
       <c r="I3">
-        <v>0.4593058955083382</v>
+        <v>0.5508291342957625</v>
       </c>
       <c r="J3">
-        <v>0.4593058955083382</v>
+        <v>0.5508291342957624</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>16.112028</v>
       </c>
       <c r="O3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P3">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q3">
-        <v>1007.572955406881</v>
+        <v>842.7682448724041</v>
       </c>
       <c r="R3">
-        <v>9068.156598661932</v>
+        <v>7584.914203851637</v>
       </c>
       <c r="S3">
-        <v>0.0282929663661468</v>
+        <v>0.04418495573542907</v>
       </c>
       <c r="T3">
-        <v>0.0282929663661468</v>
+        <v>0.04418495573542907</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>187.6063563333333</v>
+        <v>156.920329</v>
       </c>
       <c r="H4">
-        <v>562.819069</v>
+        <v>470.760987</v>
       </c>
       <c r="I4">
-        <v>0.4593058955083382</v>
+        <v>0.5508291342957625</v>
       </c>
       <c r="J4">
-        <v>0.4593058955083382</v>
+        <v>0.5508291342957624</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N4">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P4">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q4">
-        <v>4860.547441172367</v>
+        <v>3613.853469557822</v>
       </c>
       <c r="R4">
-        <v>43744.9269705513</v>
+        <v>32524.6812260204</v>
       </c>
       <c r="S4">
-        <v>0.1364857051156332</v>
+        <v>0.1894684055293452</v>
       </c>
       <c r="T4">
-        <v>0.1364857051156332</v>
+        <v>0.1894684055293452</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>242.238273</v>
       </c>
       <c r="I5">
-        <v>0.1976860291964598</v>
+        <v>0.2834387340807631</v>
       </c>
       <c r="J5">
-        <v>0.1976860291964598</v>
+        <v>0.2834387340807631</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N5">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O5">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P5">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q5">
-        <v>4514.372803642932</v>
+        <v>3112.977938420243</v>
       </c>
       <c r="R5">
-        <v>40629.35523278639</v>
+        <v>28016.80144578219</v>
       </c>
       <c r="S5">
-        <v>0.1267650121138265</v>
+        <v>0.163208323582826</v>
       </c>
       <c r="T5">
-        <v>0.1267650121138265</v>
+        <v>0.163208323582826</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>242.238273</v>
       </c>
       <c r="I6">
-        <v>0.1976860291964598</v>
+        <v>0.2834387340807631</v>
       </c>
       <c r="J6">
-        <v>0.1976860291964598</v>
+        <v>0.2834387340807631</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>16.112028</v>
       </c>
       <c r="O6">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P6">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q6">
-        <v>433.6610930275159</v>
+        <v>433.661093027516</v>
       </c>
       <c r="R6">
-        <v>3902.949837247644</v>
+        <v>3902.949837247645</v>
       </c>
       <c r="S6">
-        <v>0.01217734026453621</v>
+        <v>0.02273613928405623</v>
       </c>
       <c r="T6">
-        <v>0.01217734026453621</v>
+        <v>0.02273613928405623</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>242.238273</v>
       </c>
       <c r="I7">
-        <v>0.1976860291964598</v>
+        <v>0.2834387340807631</v>
       </c>
       <c r="J7">
-        <v>0.1976860291964598</v>
+        <v>0.2834387340807631</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N7">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O7">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P7">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q7">
-        <v>2091.98778583702</v>
+        <v>1859.571305854078</v>
       </c>
       <c r="R7">
-        <v>18827.89007253318</v>
+        <v>16736.1417526867</v>
       </c>
       <c r="S7">
-        <v>0.05874367681809702</v>
+        <v>0.09749427121388081</v>
       </c>
       <c r="T7">
-        <v>0.05874367681809702</v>
+        <v>0.09749427121388082</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>140.1037866666667</v>
+        <v>47.21380733333333</v>
       </c>
       <c r="H8">
-        <v>420.31136</v>
+        <v>141.641422</v>
       </c>
       <c r="I8">
-        <v>0.343008075295202</v>
+        <v>0.1657321316234745</v>
       </c>
       <c r="J8">
-        <v>0.3430080752952021</v>
+        <v>0.1657321316234745</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.908252</v>
+        <v>38.55267666666666</v>
       </c>
       <c r="N8">
-        <v>167.724756</v>
+        <v>115.65803</v>
       </c>
       <c r="O8">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="P8">
-        <v>0.6412441619121594</v>
+        <v>0.5758151725879548</v>
       </c>
       <c r="Q8">
-        <v>7832.95781111424</v>
+        <v>1820.218648324295</v>
       </c>
       <c r="R8">
-        <v>70496.62030002817</v>
+        <v>16381.96783491866</v>
       </c>
       <c r="S8">
-        <v>0.2199519257717747</v>
+        <v>0.09543107597414059</v>
       </c>
       <c r="T8">
-        <v>0.2199519257717747</v>
+        <v>0.09543107597414059</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>140.1037866666667</v>
+        <v>47.21380733333333</v>
       </c>
       <c r="H9">
-        <v>420.31136</v>
+        <v>141.641422</v>
       </c>
       <c r="I9">
-        <v>0.343008075295202</v>
+        <v>0.1657321316234745</v>
       </c>
       <c r="J9">
-        <v>0.3430080752952021</v>
+        <v>0.1657321316234745</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>16.112028</v>
       </c>
       <c r="O9">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867321</v>
       </c>
       <c r="P9">
-        <v>0.06159939735768788</v>
+        <v>0.08021535714867323</v>
       </c>
       <c r="Q9">
-        <v>752.4520445597865</v>
+        <v>253.5700619137573</v>
       </c>
       <c r="R9">
-        <v>6772.068401038079</v>
+        <v>2282.130557223816</v>
       </c>
       <c r="S9">
-        <v>0.02112909072700487</v>
+        <v>0.01329426212918792</v>
       </c>
       <c r="T9">
-        <v>0.02112909072700488</v>
+        <v>0.01329426212918793</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>140.1037866666667</v>
+        <v>47.21380733333333</v>
       </c>
       <c r="H10">
-        <v>420.31136</v>
+        <v>141.641422</v>
       </c>
       <c r="I10">
-        <v>0.343008075295202</v>
+        <v>0.1657321316234745</v>
       </c>
       <c r="J10">
-        <v>0.3430080752952021</v>
+        <v>0.1657321316234745</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.90822366666667</v>
+        <v>23.02986166666667</v>
       </c>
       <c r="N10">
-        <v>77.724671</v>
+        <v>69.089585</v>
       </c>
       <c r="O10">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="P10">
-        <v>0.2971564407301527</v>
+        <v>0.3439694702633719</v>
       </c>
       <c r="Q10">
-        <v>3629.840241506951</v>
+        <v>1087.327451643319</v>
       </c>
       <c r="R10">
-        <v>32668.56217356256</v>
+        <v>9785.947064789869</v>
       </c>
       <c r="S10">
-        <v>0.1019270587964224</v>
+        <v>0.05700679352014593</v>
       </c>
       <c r="T10">
-        <v>0.1019270587964225</v>
+        <v>0.05700679352014595</v>
       </c>
     </row>
   </sheetData>
